--- a/Modelos em Python/7 dias a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/7 dias a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.90032869111674</v>
+        <v>9.787951055937299</v>
       </c>
       <c r="C2" t="n">
-        <v>43.92902245149139</v>
+        <v>31.63548692605792</v>
       </c>
       <c r="D2" t="n">
-        <v>31.98110689598234</v>
+        <v>17.74949972104165</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.36933308381336</v>
+        <v>12.51306713004278</v>
       </c>
       <c r="C3" t="n">
-        <v>59.99690276421635</v>
+        <v>40.64199432961968</v>
       </c>
       <c r="D3" t="n">
-        <v>61.9056227516507</v>
+        <v>30.50946619661041</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.88287458042313</v>
+        <v>10.47836705862673</v>
       </c>
       <c r="C4" t="n">
-        <v>46.29534030029352</v>
+        <v>33.72653294377179</v>
       </c>
       <c r="D4" t="n">
-        <v>60.15178688166532</v>
+        <v>44.95513836302003</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.76468176437475</v>
+        <v>9.662340282173677</v>
       </c>
       <c r="C5" t="n">
-        <v>43.38267335509685</v>
+        <v>31.24351357794507</v>
       </c>
       <c r="D5" t="n">
-        <v>55.86351678472143</v>
+        <v>41.76365752896842</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.71951810199108</v>
+        <v>9.721462023247604</v>
       </c>
       <c r="C6" t="n">
-        <v>46.29318908509069</v>
+        <v>31.35758439480662</v>
       </c>
       <c r="D6" t="n">
-        <v>59.5707688471422</v>
+        <v>42.03487258312441</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.19375141090691</v>
+        <v>11.21483311435346</v>
       </c>
       <c r="C7" t="n">
-        <v>51.28556121380027</v>
+        <v>36.45853365114113</v>
       </c>
       <c r="D7" t="n">
-        <v>65.26584597052766</v>
+        <v>48.24903617510844</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.23366271604904</v>
+        <v>12.37885933254905</v>
       </c>
       <c r="C8" t="n">
-        <v>59.66777700757903</v>
+        <v>40.20263322368717</v>
       </c>
       <c r="D8" t="n">
-        <v>78.22979944076717</v>
+        <v>54.58944434526205</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.29612578649039</v>
+        <v>12.48608017911672</v>
       </c>
       <c r="C9" t="n">
-        <v>59.847698502226</v>
+        <v>40.56701787894198</v>
       </c>
       <c r="D9" t="n">
-        <v>78.53015380114398</v>
+        <v>55.11322923976808</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.6116377393301</v>
+        <v>118.2911371319632</v>
       </c>
       <c r="C10" t="n">
-        <v>516.0768793999509</v>
+        <v>522.3520027379567</v>
       </c>
       <c r="D10" t="n">
-        <v>516.1621305564628</v>
+        <v>522.38432054492</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.33404219869215</v>
+        <v>21.01057446220599</v>
       </c>
       <c r="C11" t="n">
-        <v>114.5955039384047</v>
+        <v>66.34908233626055</v>
       </c>
       <c r="D11" t="n">
-        <v>129.706106627968</v>
+        <v>79.27260557427644</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.8031973238478</v>
+        <v>21.3788480412775</v>
       </c>
       <c r="C12" t="n">
-        <v>109.9838047466465</v>
+        <v>67.57198492754446</v>
       </c>
       <c r="D12" t="n">
-        <v>125.356476798761</v>
+        <v>80.57580822422644</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57326868265646</v>
+        <v>20.3430375347256</v>
       </c>
       <c r="C13" t="n">
-        <v>112.3005706237706</v>
+        <v>63.99283491358266</v>
       </c>
       <c r="D13" t="n">
-        <v>127.5432467527975</v>
+        <v>77.46261406024006</v>
       </c>
     </row>
   </sheetData>
